--- a/其他文件/项目工作进度记录表.xlsx
+++ b/其他文件/项目工作进度记录表.xlsx
@@ -14,60 +14,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>项目工作进度记录表</t>
   </si>
   <si>
-    <t>2月1号</t>
-  </si>
-  <si>
-    <t>2月2号</t>
-  </si>
-  <si>
-    <t>2月3号</t>
-  </si>
-  <si>
-    <t>2月4号</t>
-  </si>
-  <si>
-    <t>放假</t>
-  </si>
-  <si>
-    <t>2月6号</t>
-  </si>
-  <si>
-    <t>2月7号</t>
-  </si>
-  <si>
-    <t>2月8号</t>
-  </si>
-  <si>
-    <t>2月9号</t>
-  </si>
-  <si>
-    <t>张毅峰--技工管理</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>邓泽玉--员工资料</t>
+    <t>邓泽玉--技工管理</t>
+  </si>
+  <si>
+    <t>技工星级（完成）</t>
+  </si>
+  <si>
+    <r>
+      <t>班组技工（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正在进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>外勤车辆管理（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>技工提成比例（完成）</t>
+  </si>
+  <si>
+    <t>总进度（75%）</t>
+  </si>
+  <si>
+    <t>张毅峰--员工资料</t>
+  </si>
+  <si>
+    <r>
+      <t>离职登记（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>组织结构（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正在进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>通讯名录（完成）</t>
+  </si>
+  <si>
+    <t>岗位定义（完成）</t>
+  </si>
+  <si>
+    <t>总进度（75%）无导入导出</t>
   </si>
   <si>
     <t>单观柏--主 数 据</t>
   </si>
   <si>
+    <t>发动机品牌（完成）</t>
+  </si>
+  <si>
+    <t>车型档案（完成）</t>
+  </si>
+  <si>
+    <r>
+      <t>维修项目（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正在进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>商品资料（未开始）</t>
+  </si>
+  <si>
+    <t>供货单位（未开始）</t>
+  </si>
+  <si>
+    <t>总进度（50%）</t>
+  </si>
+  <si>
     <t>王泽旭--客户档案</t>
   </si>
   <si>
+    <t>客户资料</t>
+  </si>
+  <si>
+    <t>车辆资料</t>
+  </si>
+  <si>
+    <t>客户分类</t>
+  </si>
+  <si>
+    <t>相关证照</t>
+  </si>
+  <si>
+    <t>客户编辑</t>
+  </si>
+  <si>
+    <t>总进度（50%）前台页面报错，后台基本全部完成</t>
+  </si>
+  <si>
     <t>马  威--前台结算</t>
   </si>
   <si>
+    <t>收银（完成）</t>
+  </si>
+  <si>
+    <t>开单据（完成）</t>
+  </si>
+  <si>
+    <t>会员管理（完成）</t>
+  </si>
+  <si>
+    <t>首页（完成）</t>
+  </si>
+  <si>
+    <t>总进度（95%）无收银打印</t>
+  </si>
+  <si>
     <t>曾炼军--维修救援</t>
+  </si>
+  <si>
+    <r>
+      <t>维修接车（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正在进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>竣工校验（未开始）</t>
+  </si>
+  <si>
+    <t>领料情况（完成）</t>
+  </si>
+  <si>
+    <t>刘全</t>
+  </si>
+  <si>
+    <t>支付宝支付接口（完成）</t>
+  </si>
+  <si>
+    <t>权限管理（未开始）</t>
   </si>
 </sst>
 </file>
@@ -75,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +307,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -135,6 +350,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -143,59 +373,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +433,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,20 +466,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,187 +488,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +727,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,13 +762,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,137 +805,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +952,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,17 +1291,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="8.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" customWidth="1"/>
+    <col min="4" max="5" width="24.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="23.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="4:4">
@@ -1072,230 +1314,185 @@
     </row>
     <row r="2" ht="15.6" spans="1:12">
       <c r="A2" s="2"/>
-      <c r="B2" s="3">
-        <v>44227</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" ht="15.6" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" ht="15.6" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" ht="15.6" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" ht="15.6" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" ht="15.6" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>11</v>
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/其他文件/项目工作进度记录表.xlsx
+++ b/其他文件/项目工作进度记录表.xlsx
@@ -26,6 +26,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>班组技工（</t>
     </r>
     <r>
@@ -51,6 +58,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>外勤车辆管理（</t>
     </r>
     <r>
@@ -85,6 +99,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>离职登记（</t>
     </r>
     <r>
@@ -109,6 +129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>组织结构（</t>
     </r>
     <r>
@@ -152,6 +179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>维修项目（</t>
     </r>
     <r>
@@ -227,6 +260,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>维修接车（</t>
     </r>
     <r>
@@ -272,8 +311,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -343,7 +382,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +450,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -372,40 +465,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,17 +489,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,37 +513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,31 +533,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,139 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +727,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,21 +777,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,32 +801,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,137 +844,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,9 +1000,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1294,7 +1330,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1302,7 +1338,8 @@
     <col min="1" max="1" width="21.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="24.7777777777778" customWidth="1"/>
-    <col min="4" max="5" width="24.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="26.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="23.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="25.8888888888889" customWidth="1"/>
   </cols>
@@ -1326,7 +1363,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
+    <row r="3" ht="18" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1348,10 +1385,10 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
-    <row r="4" ht="15.6" spans="1:11">
+    <row r="4" ht="22" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1374,9 +1411,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" ht="15.6" spans="1:11">
+    <row r="5" ht="25" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1440,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="15.6" spans="1:11">
+    <row r="6" ht="28" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1427,10 +1464,10 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" ht="15.6" spans="1:11">
+    <row r="7" ht="21" customHeight="1" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1492,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" ht="15.6" spans="1:11">
+    <row r="8" ht="21" customHeight="1" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1475,10 +1512,10 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="22" customHeight="1" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -1488,9 +1525,9 @@
       <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
